--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313213.0340391589</v>
+        <v>319022.7823460957</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3007417.133686139</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20367601.51138412</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4798096.092123126</v>
+        <v>4813756.469878181</v>
       </c>
     </row>
     <row r="11">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="10">
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.2968606583479769</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>12.35200489467393</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1935,52 +1935,52 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
-        <v>23.55470292302859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,73 +1999,73 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.008233692897317</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>88.55090549590538</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45.84493760018498</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>36.47262049130813</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.3681084119596</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>126.1966767484798</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>23.17871577922039</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,28 +3071,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>99.24815076615349</v>
+        <v>158.1223070535158</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>68.23671972608848</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.014730546014903</v>
       </c>
     </row>
     <row r="37">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>215.3939976830282</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="E38" t="n">
         <v>215.3939976830282</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>179.7283339446664</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>8.886618849664252</v>
       </c>
       <c r="D39" t="n">
-        <v>91.01404827120736</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,73 +3740,73 @@
         <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>187.9840913941556</v>
       </c>
-      <c r="D41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5.424600903878088</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>33.96385134055175</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>24.84391873418747</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G14" t="n">
-        <v>24.84391873418747</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H14" t="n">
-        <v>24.84391873418747</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J14" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
         <v>77.1170764958388</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F15" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G15" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H15" t="n">
         <v>2.049623295570466</v>
@@ -5361,46 +5361,46 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M15" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N15" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V15" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W15" t="n">
         <v>50.72300074896609</v>
       </c>
       <c r="X15" t="n">
-        <v>24.84391873418747</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="16">
@@ -5413,7 +5413,7 @@
         <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>102.1813055276668</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
         <v>102.1813055276668</v>
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="C17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="D17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="E17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="F17" t="n">
-        <v>54.62267627294912</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="G17" t="n">
-        <v>54.62267627294912</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H17" t="n">
-        <v>26.7539638887914</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I17" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M17" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5537,28 +5537,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="T17" t="n">
-        <v>82.49138865710684</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="U17" t="n">
-        <v>82.49138865710684</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="V17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="W17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="X17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G18" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I18" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
         <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="N18" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="O18" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5616,28 +5616,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>86.56747182608416</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>58.69875944192644</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y18" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>85.81333917329844</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T19" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W19" t="n">
         <v>30.07591440498301</v>
       </c>
       <c r="X19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,19 +5771,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
         <v>749.627473042513</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>958.9983335986187</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>785.5809890492876</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>785.5809890492876</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>785.5809890492876</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>550.428880817545</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>550.428880817545</v>
       </c>
       <c r="X21" t="n">
-        <v>396.0109115480204</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2506127830665</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="22">
@@ -5929,22 +5929,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>212.1237188612924</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C24" t="n">
-        <v>212.1237188612924</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D24" t="n">
-        <v>212.1237188612924</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="E24" t="n">
-        <v>212.1237188612924</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="F24" t="n">
-        <v>65.58916088817736</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>56.87630656229959</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>419.8840176262463</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>212.1237188612924</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.3060923407354</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.3060923407354</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>777.5613083818946</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X27" t="n">
-        <v>569.7098081763618</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="28">
@@ -6406,13 +6406,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132.6502787026334</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6502787026334</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6502787026334</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>839.4747818420872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>839.4747818420872</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>611.2511635784762</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>376.0990553467335</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>132.6502787026334</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>132.6502787026334</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.6502787026334</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6637,19 +6637,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>942.6594228129348</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>262.7299197543128</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>179.2727307684539</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C33" t="n">
-        <v>179.2727307684539</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>152.4612591001897</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>365.7013168063877</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="U33" t="n">
-        <v>387.0330295334078</v>
+        <v>225.0830200201751</v>
       </c>
       <c r="V33" t="n">
-        <v>387.0330295334078</v>
+        <v>225.0830200201751</v>
       </c>
       <c r="W33" t="n">
-        <v>387.0330295334078</v>
+        <v>225.0830200201751</v>
       </c>
       <c r="X33" t="n">
-        <v>387.0330295334078</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y33" t="n">
-        <v>179.2727307684539</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>208.8669068441485</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>325.7954424002585</v>
+        <v>590.1560429053195</v>
       </c>
       <c r="C36" t="n">
-        <v>325.7954424002585</v>
+        <v>415.7030136241925</v>
       </c>
       <c r="D36" t="n">
-        <v>325.7954424002585</v>
+        <v>266.7686039629413</v>
       </c>
       <c r="E36" t="n">
-        <v>325.7954424002585</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="F36" t="n">
-        <v>179.2608844271435</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="G36" t="n">
-        <v>179.2608844271435</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>678.932513118762</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="V36" t="n">
-        <v>533.6469426057913</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="W36" t="n">
-        <v>533.6469426057913</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="X36" t="n">
-        <v>325.7954424002585</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="Y36" t="n">
-        <v>325.7954424002585</v>
+        <v>758.3713799253876</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="C38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="D38" t="n">
-        <v>633.9146807345644</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="E38" t="n">
-        <v>416.3449861052429</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7175,16 +7175,16 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
         <v>771.915935440062</v>
@@ -7193,31 +7193,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y38" t="n">
-        <v>851.4843753638859</v>
+        <v>644.0062961027915</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>268.4023569122264</v>
+        <v>26.2079024910708</v>
       </c>
       <c r="C39" t="n">
-        <v>268.4023569122264</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>176.4689748200978</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
         <v>17.23151981464226</v>
@@ -7263,13 +7263,13 @@
         <v>443.7116352270382</v>
       </c>
       <c r="N39" t="n">
-        <v>648.335933025915</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O39" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P39" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>485.9720515415478</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U39" t="n">
-        <v>268.4023569122264</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="V39" t="n">
-        <v>268.4023569122264</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="W39" t="n">
-        <v>268.4023569122264</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="X39" t="n">
-        <v>268.4023569122264</v>
+        <v>233.9682012560247</v>
       </c>
       <c r="Y39" t="n">
-        <v>268.4023569122264</v>
+        <v>26.2079024910708</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>638.1169902094293</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>448.2340696092722</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="E41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="F41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="G41" t="n">
         <v>17.07394108938743</v>
@@ -7412,19 +7412,19 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0889470003098</v>
+        <v>107.2817095536563</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>287.3575611383148</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>498.6475821194843</v>
       </c>
       <c r="N41" t="n">
-        <v>614.8420490346726</v>
+        <v>704.5021043267236</v>
       </c>
       <c r="O41" t="n">
-        <v>764.0369991773207</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
@@ -7439,22 +7439,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="U41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="W41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y41" t="n">
-        <v>853.6970544693717</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.82807374217315</v>
+        <v>113.6070977374188</v>
       </c>
       <c r="C42" t="n">
-        <v>17.82807374217315</v>
+        <v>113.6070977374188</v>
       </c>
       <c r="D42" t="n">
-        <v>17.82807374217315</v>
+        <v>113.6070977374188</v>
       </c>
       <c r="E42" t="n">
-        <v>17.82807374217315</v>
+        <v>113.6070977374188</v>
       </c>
       <c r="F42" t="n">
-        <v>17.82807374217315</v>
+        <v>113.6070977374188</v>
       </c>
       <c r="G42" t="n">
-        <v>17.82807374217315</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="H42" t="n">
-        <v>17.82807374217315</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="I42" t="n">
         <v>17.82807374217315</v>
@@ -7494,46 +7494,46 @@
         <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>219.8269915258632</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M42" t="n">
-        <v>431.1170125070327</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="N42" t="n">
-        <v>642.4070334882022</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="O42" t="n">
-        <v>853.6970544693717</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>853.6970544693717</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="S42" t="n">
-        <v>853.6970544693717</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="T42" t="n">
-        <v>651.5104598281378</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="U42" t="n">
-        <v>651.5104598281378</v>
+        <v>536.947460762315</v>
       </c>
       <c r="V42" t="n">
-        <v>435.9303955681954</v>
+        <v>536.947460762315</v>
       </c>
       <c r="W42" t="n">
-        <v>220.3503313082531</v>
+        <v>321.3673965023727</v>
       </c>
       <c r="X42" t="n">
-        <v>220.3503313082531</v>
+        <v>321.3673965023727</v>
       </c>
       <c r="Y42" t="n">
-        <v>186.0434107622412</v>
+        <v>113.6070977374188</v>
       </c>
     </row>
     <row r="43">
@@ -8459,16 +8459,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8541,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -8702,10 +8702,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
         <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>256.8532869499004</v>
@@ -9009,10 +9009,10 @@
         <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9021,10 +9021,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9732,10 +9732,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>275.1500760279019</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>249.5274280969312</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>283.1274823473447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10911,7 +10911,7 @@
         <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>338.0329219811887</v>
+        <v>267.937408331361</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>311.2088090896966</v>
       </c>
       <c r="L41" t="n">
-        <v>314.1588986527692</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>443.7704968446156</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>343.3554408268194</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0205080617874</v>
+        <v>306.2376942332981</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23106,7 +23106,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="10">
@@ -23188,13 +23188,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>139.6608200232087</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="11">
@@ -23273,10 +23273,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>316.9084496315363</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,13 +23303,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>149.116818619607</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>286.0221686981429</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>187.9095370861751</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23583,13 +23583,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>89.66909175226563</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V15" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>183.1163432930735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.9499604402799</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.3186123598644</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>186.1745953211195</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>137.5171130464757</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23786,10 +23786,10 @@
         <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23823,16 +23823,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>176.610025771793</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,28 +23932,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5678386764629</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>95.14960045974581</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,10 +24108,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>117.2220797075721</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>91.49857956302566</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>75.76282374518833</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,22 +24443,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>259.1400950999471</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,13 +24488,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0.02852443945548089</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>291.5414323341854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>46.51182223983592</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>148.5044553246174</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,7 +24920,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,28 +24959,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>180.0120675192578</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>126.6932313148213</v>
+        <v>67.81907502745898</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>164.9640084614718</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,16 +25208,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>43.99872451040798</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>203.6679652312895</v>
       </c>
     </row>
     <row r="37">
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,7 +25394,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>139.2890439376547</v>
+        <v>164.9640084614717</v>
       </c>
       <c r="E38" t="n">
         <v>166.5363723892335</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>30.74755562573949</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>163.8218801386515</v>
       </c>
       <c r="D39" t="n">
-        <v>56.4310172934314</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,7 +25518,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,10 +25628,10 @@
         <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>177.288800376852</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>141.25877800334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>227.3186461209794</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>9.67158594678844</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>131.9189162593325</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>171.7188444367526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350071.9014065734</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350071.9014065734</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507087.7759459232</v>
+        <v>507087.7759459233</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507087.7759459231</v>
+        <v>507087.7759459233</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507087.7759459231</v>
+        <v>488558.5542106443</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507087.7759459231</v>
+        <v>488558.5542106443</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487133.994318434</v>
+        <v>487133.9943184342</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="C2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201248</v>
+        <v>80335.9151240936</v>
       </c>
       <c r="E2" t="n">
-        <v>75255.18387201247</v>
+        <v>80335.91512409359</v>
       </c>
       <c r="F2" t="n">
-        <v>80335.91512409358</v>
+        <v>80335.91512409359</v>
       </c>
       <c r="G2" t="n">
         <v>80710.96958749177</v>
@@ -26341,10 +26341,10 @@
         <v>116312.4707719327</v>
       </c>
       <c r="L2" t="n">
-        <v>116312.4707719327</v>
+        <v>112066.9282188238</v>
       </c>
       <c r="M2" t="n">
-        <v>116312.4707719327</v>
+        <v>112066.9282188238</v>
       </c>
       <c r="N2" t="n">
         <v>112066.9282188238</v>
@@ -26353,7 +26353,7 @@
         <v>111740.5232716417</v>
       </c>
       <c r="P2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201247</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7340.879554832793</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>539.8745613933579</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27440.77263656519</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="C4" t="n">
-        <v>27440.77263656519</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="D4" t="n">
-        <v>27440.77263656519</v>
+        <v>28750.45758452691</v>
       </c>
       <c r="E4" t="n">
-        <v>27440.77263656519</v>
+        <v>28750.45758452691</v>
       </c>
       <c r="F4" t="n">
-        <v>29353.22408421848</v>
+        <v>28750.45758452691</v>
       </c>
       <c r="G4" t="n">
-        <v>29494.39932374348</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589616</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>40451.80921477856</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.2542599155</v>
+        <v>40451.80921477856</v>
       </c>
       <c r="N4" t="n">
-        <v>41297.17839269835</v>
+        <v>40451.80921477856</v>
       </c>
       <c r="O4" t="n">
-        <v>41174.31544585305</v>
+        <v>40331.4418300553</v>
       </c>
       <c r="P4" t="n">
-        <v>27440.77263656519</v>
+        <v>26876.8513828616</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
         <v>1557.713704633554</v>
@@ -26497,10 +26497,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14186.81123544729</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="C6" t="n">
-        <v>14186.81123544729</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="D6" t="n">
-        <v>14186.81123544729</v>
+        <v>8441.712781144975</v>
       </c>
       <c r="E6" t="n">
-        <v>47814.41123544727</v>
+        <v>50027.74383493312</v>
       </c>
       <c r="F6" t="n">
-        <v>42084.09778040875</v>
+        <v>50027.74383493312</v>
       </c>
       <c r="G6" t="n">
-        <v>48999.22216652771</v>
+        <v>49604.85618315076</v>
       </c>
       <c r="H6" t="n">
-        <v>1179.760605923824</v>
+        <v>2057.58950994318</v>
       </c>
       <c r="I6" t="n">
-        <v>58763.54774825554</v>
+        <v>59641.37665227486</v>
       </c>
       <c r="J6" t="n">
-        <v>58763.54774825549</v>
+        <v>59641.37665227489</v>
       </c>
       <c r="K6" t="n">
-        <v>58763.54774825557</v>
+        <v>59641.37665227484</v>
       </c>
       <c r="L6" t="n">
-        <v>58763.54774825551</v>
+        <v>58519.16394491715</v>
       </c>
       <c r="M6" t="n">
-        <v>58763.54774825551</v>
+        <v>58519.16394491716</v>
       </c>
       <c r="N6" t="n">
-        <v>57673.79476699735</v>
+        <v>58519.16394491718</v>
       </c>
       <c r="O6" t="n">
-        <v>57590.01259785415</v>
+        <v>58432.8862136519</v>
       </c>
       <c r="P6" t="n">
-        <v>47814.41123544729</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -26793,10 +26793,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
         <v>25.62029119463083</v>
@@ -26817,10 +26817,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
         <v>215.3939976830282</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1.969734065685309</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>1.969734065685309</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>25.62029119463083</v>
@@ -35729,22 +35729,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M15" t="n">
+      <c r="Q15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="N18" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37069,16 +37069,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>136.5956962480278</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>110.973048317057</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>53.02927092565796</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37631,7 +37631,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>206.6912098978553</v>
+        <v>136.5956962480277</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>91.118958044716</v>
       </c>
       <c r="L41" t="n">
-        <v>78.39248368278189</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>213.4242636173429</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>204.8010610469452</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>213.4242636173429</v>
+        <v>163.6414497888537</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
